--- a/Code/Results/Cases/Case_9_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014141092929795</v>
+        <v>1.013379662832544</v>
       </c>
       <c r="D2">
-        <v>1.032324089135064</v>
+        <v>1.030868746015832</v>
       </c>
       <c r="E2">
-        <v>1.026713410946233</v>
+        <v>1.02610714133285</v>
       </c>
       <c r="F2">
-        <v>1.033214211950899</v>
+        <v>1.032723388294872</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052329599979618</v>
+        <v>1.051586848262531</v>
       </c>
       <c r="J2">
-        <v>1.035906918899629</v>
+        <v>1.035167424408826</v>
       </c>
       <c r="K2">
-        <v>1.043350742338807</v>
+        <v>1.041914150071488</v>
       </c>
       <c r="L2">
-        <v>1.037812719325384</v>
+        <v>1.037214360147259</v>
       </c>
       <c r="M2">
-        <v>1.044229429231776</v>
+        <v>1.043744908422723</v>
       </c>
       <c r="N2">
-        <v>1.015822725513684</v>
+        <v>1.01649336326246</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043577010518663</v>
+        <v>1.043193546311401</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041723011845974</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04071596393818</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023199465150346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017469195295058</v>
+        <v>1.016594470206329</v>
       </c>
       <c r="D3">
-        <v>1.034581453018597</v>
+        <v>1.032960742442387</v>
       </c>
       <c r="E3">
-        <v>1.029334092114591</v>
+        <v>1.028634978761984</v>
       </c>
       <c r="F3">
-        <v>1.035862862034076</v>
+        <v>1.035297760376232</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053187342739352</v>
+        <v>1.052352582666723</v>
       </c>
       <c r="J3">
-        <v>1.037494701787744</v>
+        <v>1.036642753270469</v>
       </c>
       <c r="K3">
-        <v>1.044790181341518</v>
+        <v>1.043188563463967</v>
       </c>
       <c r="L3">
-        <v>1.039604906656671</v>
+        <v>1.038914124421938</v>
       </c>
       <c r="M3">
-        <v>1.046056547119355</v>
+        <v>1.045498073851991</v>
       </c>
       <c r="N3">
-        <v>1.016356960629154</v>
+        <v>1.016887143486893</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045023044251609</v>
+        <v>1.044581052722484</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042738157301802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041614147925199</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023440001492326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019587255479715</v>
+        <v>1.01864102756355</v>
       </c>
       <c r="D4">
-        <v>1.036020936806653</v>
+        <v>1.034295415617465</v>
       </c>
       <c r="E4">
-        <v>1.031007743307865</v>
+        <v>1.030249992132231</v>
       </c>
       <c r="F4">
-        <v>1.037556312925239</v>
+        <v>1.036944332475452</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053723742275201</v>
+        <v>1.052830569579958</v>
       </c>
       <c r="J4">
-        <v>1.038502850162022</v>
+        <v>1.037579621949768</v>
       </c>
       <c r="K4">
-        <v>1.04570322172824</v>
+        <v>1.043996821668142</v>
       </c>
       <c r="L4">
-        <v>1.040745799295038</v>
+        <v>1.039996536127543</v>
       </c>
       <c r="M4">
-        <v>1.047221649499591</v>
+        <v>1.046616417041446</v>
       </c>
       <c r="N4">
-        <v>1.016696243444788</v>
+        <v>1.017137300005136</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045945138349336</v>
+        <v>1.045466140865152</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043384640704415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042186625546625</v>
+      </c>
+      <c r="S4">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T4">
+        <v>1.023590195700331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02047200616679</v>
+        <v>1.019496012660029</v>
       </c>
       <c r="D5">
-        <v>1.036625051343043</v>
+        <v>1.03485587436594</v>
       </c>
       <c r="E5">
-        <v>1.031708382496603</v>
+        <v>1.030926206386805</v>
       </c>
       <c r="F5">
-        <v>1.038265219685119</v>
+        <v>1.03763372106819</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053946961227665</v>
+        <v>1.053029422196073</v>
       </c>
       <c r="J5">
-        <v>1.038924681138675</v>
+        <v>1.037971713818787</v>
       </c>
       <c r="K5">
-        <v>1.046086623151682</v>
+        <v>1.044336537176662</v>
       </c>
       <c r="L5">
-        <v>1.041223208185915</v>
+        <v>1.040449561538412</v>
       </c>
       <c r="M5">
-        <v>1.047709163820554</v>
+        <v>1.047084444136513</v>
       </c>
       <c r="N5">
-        <v>1.016838563139043</v>
+        <v>1.017242272066618</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046330970260266</v>
+        <v>1.045836550308031</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043662870366765</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042434678894431</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023653230161412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020623224513465</v>
+        <v>1.019642109964575</v>
       </c>
       <c r="D6">
-        <v>1.036730963164739</v>
+        <v>1.034954360871155</v>
       </c>
       <c r="E6">
-        <v>1.03182840250615</v>
+        <v>1.03104201534153</v>
       </c>
       <c r="F6">
-        <v>1.038386092315687</v>
+        <v>1.037751230646429</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053986758290132</v>
+        <v>1.053065057520619</v>
       </c>
       <c r="J6">
-        <v>1.038998316050868</v>
+        <v>1.038040231472024</v>
       </c>
       <c r="K6">
-        <v>1.046155462516865</v>
+        <v>1.044397944855611</v>
       </c>
       <c r="L6">
-        <v>1.04130576187821</v>
+        <v>1.040527911033222</v>
       </c>
       <c r="M6">
-        <v>1.047792883885829</v>
+        <v>1.047164806252194</v>
       </c>
       <c r="N6">
-        <v>1.016863819975024</v>
+        <v>1.017260927318024</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046397228545322</v>
+        <v>1.045900151065379</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043720246475443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042487670986128</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023665174783064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019607536796618</v>
+        <v>1.018666949842128</v>
       </c>
       <c r="D7">
-        <v>1.036041777314346</v>
+        <v>1.034320119175645</v>
       </c>
       <c r="E7">
-        <v>1.031024314294778</v>
+        <v>1.030271278472772</v>
       </c>
       <c r="F7">
-        <v>1.037571491066108</v>
+        <v>1.036963264479226</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053733626061219</v>
+        <v>1.052843327571968</v>
       </c>
       <c r="J7">
-        <v>1.038516726842841</v>
+        <v>1.037598992761331</v>
       </c>
       <c r="K7">
-        <v>1.045720969603837</v>
+        <v>1.044018382401938</v>
       </c>
       <c r="L7">
-        <v>1.040759304069551</v>
+        <v>1.040014700242865</v>
       </c>
       <c r="M7">
-        <v>1.047233803853729</v>
+        <v>1.04663228136375</v>
       </c>
       <c r="N7">
-        <v>1.016702045996774</v>
+        <v>1.01716914917015</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045954757633695</v>
+        <v>1.045478696326748</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043417203509129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042223887402539</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023596360599644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015283722956549</v>
+        <v>1.014502827452483</v>
       </c>
       <c r="D8">
-        <v>1.033107052636891</v>
+        <v>1.03160957862427</v>
       </c>
       <c r="E8">
-        <v>1.027612643922312</v>
+        <v>1.026990787983928</v>
       </c>
       <c r="F8">
-        <v>1.034120675181259</v>
+        <v>1.033617302513105</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052631798644957</v>
+        <v>1.051867902838326</v>
       </c>
       <c r="J8">
-        <v>1.036457679006798</v>
+        <v>1.035698537728081</v>
       </c>
       <c r="K8">
-        <v>1.043856491463825</v>
+        <v>1.042377746783807</v>
       </c>
       <c r="L8">
-        <v>1.038431136460547</v>
+        <v>1.037817154106784</v>
       </c>
       <c r="M8">
-        <v>1.044857474700005</v>
+        <v>1.044360374947362</v>
       </c>
       <c r="N8">
-        <v>1.016009481293718</v>
+        <v>1.016714696715652</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044074064118118</v>
+        <v>1.043680644825571</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042103419438092</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041068838464625</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023291155951061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007369548498874</v>
+        <v>1.006864792880678</v>
       </c>
       <c r="D9">
-        <v>1.027748443320193</v>
+        <v>1.026648824863332</v>
       </c>
       <c r="E9">
-        <v>1.021414257744214</v>
+        <v>1.021018477320711</v>
       </c>
       <c r="F9">
-        <v>1.027868945634145</v>
+        <v>1.027546639470017</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050534182610656</v>
+        <v>1.049991413103518</v>
       </c>
       <c r="J9">
-        <v>1.032664726328239</v>
+        <v>1.032177444958773</v>
       </c>
       <c r="K9">
-        <v>1.040406810350621</v>
+        <v>1.039323848739622</v>
       </c>
       <c r="L9">
-        <v>1.034169201520342</v>
+        <v>1.033779506290829</v>
       </c>
       <c r="M9">
-        <v>1.04052549007485</v>
+        <v>1.040208059990365</v>
       </c>
       <c r="N9">
-        <v>1.014732467987733</v>
+        <v>1.015783971269161</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040645597546396</v>
+        <v>1.040394372924558</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039661126445498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03890610504016</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022700059931346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001947894813952</v>
+        <v>1.001662610280466</v>
       </c>
       <c r="D10">
-        <v>1.024103534238686</v>
+        <v>1.023298124799683</v>
       </c>
       <c r="E10">
-        <v>1.017241698888717</v>
+        <v>1.017025592116107</v>
       </c>
       <c r="F10">
-        <v>1.023721832388833</v>
+        <v>1.023543611553829</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049066477339803</v>
+        <v>1.04868983035023</v>
       </c>
       <c r="J10">
-        <v>1.030084441564965</v>
+        <v>1.029810418198318</v>
       </c>
       <c r="K10">
-        <v>1.038050815065783</v>
+        <v>1.037259091177729</v>
       </c>
       <c r="L10">
-        <v>1.031306474211393</v>
+        <v>1.031094101124798</v>
       </c>
       <c r="M10">
-        <v>1.037675595644037</v>
+        <v>1.037500403664489</v>
       </c>
       <c r="N10">
-        <v>1.013869115844664</v>
+        <v>1.015272784863411</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038441534781536</v>
+        <v>1.038302890310967</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038012053274908</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037464633468666</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022295407124181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000012409173371</v>
+        <v>0.9998354798540157</v>
       </c>
       <c r="D11">
-        <v>1.022860516092748</v>
+        <v>1.022177772845776</v>
       </c>
       <c r="E11">
-        <v>1.01608283776698</v>
+        <v>1.015954181431513</v>
       </c>
       <c r="F11">
-        <v>1.022984906310183</v>
+        <v>1.022877314096829</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048657712178849</v>
+        <v>1.048354498730649</v>
       </c>
       <c r="J11">
-        <v>1.029384671918624</v>
+        <v>1.029215104658741</v>
       </c>
       <c r="K11">
-        <v>1.037363820596518</v>
+        <v>1.036693227352423</v>
       </c>
       <c r="L11">
-        <v>1.030707697703093</v>
+        <v>1.030581369174387</v>
       </c>
       <c r="M11">
-        <v>1.037485999449698</v>
+        <v>1.037380319930998</v>
       </c>
       <c r="N11">
-        <v>1.013674078042102</v>
+        <v>1.015369850913986</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038727573231137</v>
+        <v>1.03864398200144</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037559051624289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037100495123458</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022218725163142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9994521837720333</v>
+        <v>0.9993070177724992</v>
       </c>
       <c r="D12">
-        <v>1.022518785264247</v>
+        <v>1.021869568757778</v>
       </c>
       <c r="E12">
-        <v>1.01589243389578</v>
+        <v>1.015788225416143</v>
       </c>
       <c r="F12">
-        <v>1.023099280191143</v>
+        <v>1.023011789114829</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048589914785579</v>
+        <v>1.048307453090001</v>
       </c>
       <c r="J12">
-        <v>1.029279746273481</v>
+        <v>1.029140734834527</v>
       </c>
       <c r="K12">
-        <v>1.037226913979727</v>
+        <v>1.036589443037243</v>
       </c>
       <c r="L12">
-        <v>1.030721364864127</v>
+        <v>1.030619072565721</v>
       </c>
       <c r="M12">
-        <v>1.037796923057516</v>
+        <v>1.037711011398008</v>
       </c>
       <c r="N12">
-        <v>1.013668877617256</v>
+        <v>1.015471786194664</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039299723014488</v>
+        <v>1.039231790904515</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037462254845862</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037027118174909</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022221702435663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9999232149794529</v>
+        <v>0.9997438824771098</v>
       </c>
       <c r="D13">
-        <v>1.022862200641915</v>
+        <v>1.022173318449418</v>
       </c>
       <c r="E13">
-        <v>1.01644498761453</v>
+        <v>1.016311151860171</v>
       </c>
       <c r="F13">
-        <v>1.023896110925516</v>
+        <v>1.023785438455501</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048792606188905</v>
+        <v>1.048486996120041</v>
       </c>
       <c r="J13">
-        <v>1.029638191914238</v>
+        <v>1.029466424908322</v>
       </c>
       <c r="K13">
-        <v>1.037521514909888</v>
+        <v>1.036845044075122</v>
       </c>
       <c r="L13">
-        <v>1.031220767047037</v>
+        <v>1.03108938064766</v>
       </c>
       <c r="M13">
-        <v>1.038536838302459</v>
+        <v>1.038428153090891</v>
       </c>
       <c r="N13">
-        <v>1.013815246382008</v>
+        <v>1.01555330625019</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040161237408938</v>
+        <v>1.040075319350471</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037668062021015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037205105031795</v>
+      </c>
+      <c r="S13">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T13">
+        <v>1.022290841218488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000719474015363</v>
+        <v>1.000487051177726</v>
       </c>
       <c r="D14">
-        <v>1.023413844410749</v>
+        <v>1.02266460927243</v>
       </c>
       <c r="E14">
-        <v>1.017165874199218</v>
+        <v>1.016987594777626</v>
       </c>
       <c r="F14">
-        <v>1.024760143582093</v>
+        <v>1.024614240279697</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049056797210441</v>
+        <v>1.048715461998313</v>
       </c>
       <c r="J14">
-        <v>1.030097963954005</v>
+        <v>1.029875207399026</v>
       </c>
       <c r="K14">
-        <v>1.037923725720262</v>
+        <v>1.037187823641358</v>
       </c>
       <c r="L14">
-        <v>1.031787723117969</v>
+        <v>1.03161266482625</v>
       </c>
       <c r="M14">
-        <v>1.039246130298722</v>
+        <v>1.039102812603817</v>
       </c>
       <c r="N14">
-        <v>1.013986092356144</v>
+        <v>1.01560227050432</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040895102225683</v>
+        <v>1.040781821692863</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037953855908179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037449013396667</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022369640867615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00114304986472</v>
+        <v>1.000883704633247</v>
       </c>
       <c r="D15">
-        <v>1.023703719862479</v>
+        <v>1.022923956049134</v>
       </c>
       <c r="E15">
-        <v>1.017512982645712</v>
+        <v>1.017312492478546</v>
       </c>
       <c r="F15">
-        <v>1.025136803068865</v>
+        <v>1.024973194491355</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04918421219559</v>
+        <v>1.048824729229903</v>
       </c>
       <c r="J15">
-        <v>1.03031755225501</v>
+        <v>1.030068899949506</v>
       </c>
       <c r="K15">
-        <v>1.038122523266868</v>
+        <v>1.037356531577036</v>
       </c>
       <c r="L15">
-        <v>1.032041881639832</v>
+        <v>1.031844986073565</v>
       </c>
       <c r="M15">
-        <v>1.039530366291037</v>
+        <v>1.039369634644131</v>
       </c>
       <c r="N15">
-        <v>1.01406346275271</v>
+        <v>1.015614760910132</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041157267587269</v>
+        <v>1.041030226134145</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03810026096856</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037574713838564</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022405473605909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003344571388795</v>
+        <v>1.002957438417285</v>
       </c>
       <c r="D16">
-        <v>1.025180352937074</v>
+        <v>1.02425291465003</v>
       </c>
       <c r="E16">
-        <v>1.019175516383138</v>
+        <v>1.018870936094369</v>
       </c>
       <c r="F16">
-        <v>1.026771339321722</v>
+        <v>1.026524326442979</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049781411612473</v>
+        <v>1.049334396600482</v>
       </c>
       <c r="J16">
-        <v>1.031349754626478</v>
+        <v>1.030977796487981</v>
       </c>
       <c r="K16">
-        <v>1.039073991757985</v>
+        <v>1.038162226355863</v>
       </c>
       <c r="L16">
-        <v>1.033171284925031</v>
+        <v>1.03287192636999</v>
       </c>
       <c r="M16">
-        <v>1.040638176918623</v>
+        <v>1.040395318110721</v>
       </c>
       <c r="N16">
-        <v>1.014404355364207</v>
+        <v>1.015647126744241</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041994197215123</v>
+        <v>1.041802237416194</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03877613420056</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038147820092806</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022561026243813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004619094639702</v>
+        <v>1.004168451908307</v>
       </c>
       <c r="D17">
-        <v>1.026026855025457</v>
+        <v>1.025022661147593</v>
       </c>
       <c r="E17">
-        <v>1.020075481044143</v>
+        <v>1.019719595607425</v>
       </c>
       <c r="F17">
-        <v>1.027568981104127</v>
+        <v>1.027280678014048</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050099386639195</v>
+        <v>1.04960739151612</v>
       </c>
       <c r="J17">
-        <v>1.031900917835914</v>
+        <v>1.031467379773339</v>
       </c>
       <c r="K17">
-        <v>1.039593426112571</v>
+        <v>1.038605730155123</v>
       </c>
       <c r="L17">
-        <v>1.033740438150611</v>
+        <v>1.033390482964606</v>
       </c>
       <c r="M17">
-        <v>1.041110297267039</v>
+        <v>1.040826708220549</v>
       </c>
       <c r="N17">
-        <v>1.014576372195178</v>
+        <v>1.015674739727931</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042238462107951</v>
+        <v>1.042014286137622</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039145969893698</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038464218265807</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022639710781668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005201151471497</v>
+        <v>1.004728667730222</v>
       </c>
       <c r="D18">
-        <v>1.026392437626797</v>
+        <v>1.02536022040804</v>
       </c>
       <c r="E18">
-        <v>1.02037057098512</v>
+        <v>1.019997692880147</v>
       </c>
       <c r="F18">
-        <v>1.027662709570695</v>
+        <v>1.027360416337617</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050196500222769</v>
+        <v>1.049688214596307</v>
       </c>
       <c r="J18">
-        <v>1.032069095431726</v>
+        <v>1.031614214331552</v>
       </c>
       <c r="K18">
-        <v>1.039770640225912</v>
+        <v>1.038755105197424</v>
       </c>
       <c r="L18">
-        <v>1.033846707893966</v>
+        <v>1.033479942832127</v>
       </c>
       <c r="M18">
-        <v>1.04102044166875</v>
+        <v>1.04072301401821</v>
       </c>
       <c r="N18">
-        <v>1.014610441880534</v>
+        <v>1.015657403723189</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041929982452666</v>
+        <v>1.041694818212745</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039259674029847</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038557102359269</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022652513207692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005161770544592</v>
+        <v>1.00470007067521</v>
       </c>
       <c r="D19">
-        <v>1.026336220549858</v>
+        <v>1.025316459348224</v>
       </c>
       <c r="E19">
-        <v>1.020116772184058</v>
+        <v>1.019753767349663</v>
       </c>
       <c r="F19">
-        <v>1.027111095366081</v>
+        <v>1.026816177834635</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050102410758457</v>
+        <v>1.0496012303975</v>
       </c>
       <c r="J19">
-        <v>1.031897684923545</v>
+        <v>1.03145308710772</v>
       </c>
       <c r="K19">
-        <v>1.039653138692742</v>
+        <v>1.038649772595368</v>
       </c>
       <c r="L19">
-        <v>1.033534337756536</v>
+        <v>1.033177256047257</v>
       </c>
       <c r="M19">
-        <v>1.040415583454602</v>
+        <v>1.040125393968653</v>
       </c>
       <c r="N19">
-        <v>1.014525027562943</v>
+        <v>1.015583563578178</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041126530857384</v>
+        <v>1.040897014703278</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039182967465668</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03848962524461</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022609809755178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003373439232545</v>
+        <v>1.003011906921266</v>
       </c>
       <c r="D20">
-        <v>1.025077456349159</v>
+        <v>1.024181361287762</v>
       </c>
       <c r="E20">
-        <v>1.01834002811356</v>
+        <v>1.018061003873835</v>
       </c>
       <c r="F20">
-        <v>1.024811710187729</v>
+        <v>1.024583154969405</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049467320857619</v>
+        <v>1.049037446740698</v>
       </c>
       <c r="J20">
-        <v>1.030774936972178</v>
+        <v>1.030427216303734</v>
       </c>
       <c r="K20">
-        <v>1.038693230095209</v>
+        <v>1.037811932028793</v>
       </c>
       <c r="L20">
-        <v>1.032067878006092</v>
+        <v>1.031793536536217</v>
       </c>
       <c r="M20">
-        <v>1.038431868660991</v>
+        <v>1.038207086872296</v>
       </c>
       <c r="N20">
-        <v>1.014103586292166</v>
+        <v>1.01534068629046</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039029495641139</v>
+        <v>1.038851604354687</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038508184996021</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037901539640366</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022406844757668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9992202656584878</v>
+        <v>0.9991167129216938</v>
       </c>
       <c r="D21">
-        <v>1.022278854599495</v>
+        <v>1.021675344039972</v>
       </c>
       <c r="E21">
-        <v>1.015093336755688</v>
+        <v>1.015027918500814</v>
       </c>
       <c r="F21">
-        <v>1.021508117710604</v>
+        <v>1.02145022201696</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048301088485609</v>
+        <v>1.048045513760165</v>
       </c>
       <c r="J21">
-        <v>1.028750623457038</v>
+        <v>1.028651410481381</v>
       </c>
       <c r="K21">
-        <v>1.036850092667055</v>
+        <v>1.036257386054174</v>
       </c>
       <c r="L21">
-        <v>1.029794294282848</v>
+        <v>1.029730067997138</v>
       </c>
       <c r="M21">
-        <v>1.036093156317077</v>
+        <v>1.036036298375427</v>
       </c>
       <c r="N21">
-        <v>1.01341889099351</v>
+        <v>1.015281474146075</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037137694696982</v>
+        <v>1.037092695235758</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037208240967751</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036805968320134</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022098862793202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9965812239516352</v>
+        <v>0.996640210999723</v>
       </c>
       <c r="D22">
-        <v>1.02050152832111</v>
+        <v>1.020082309531651</v>
       </c>
       <c r="E22">
-        <v>1.013057296312399</v>
+        <v>1.013126580025759</v>
       </c>
       <c r="F22">
-        <v>1.019465897118998</v>
+        <v>1.01951563583996</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047554015747905</v>
+        <v>1.047407870430584</v>
       </c>
       <c r="J22">
-        <v>1.027472207299274</v>
+        <v>1.027528580079516</v>
       </c>
       <c r="K22">
-        <v>1.035677500338961</v>
+        <v>1.035266160556632</v>
       </c>
       <c r="L22">
-        <v>1.028374448845833</v>
+        <v>1.028442406068428</v>
       </c>
       <c r="M22">
-        <v>1.034661348681159</v>
+        <v>1.034710150667504</v>
       </c>
       <c r="N22">
-        <v>1.012987436091667</v>
+        <v>1.015238767662597</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036004508731558</v>
+        <v>1.036043132473496</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036365708562418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036090367881388</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021900749974534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9979773658280915</v>
+        <v>0.9979403613087107</v>
       </c>
       <c r="D23">
-        <v>1.021435485424161</v>
+        <v>1.020911226249015</v>
       </c>
       <c r="E23">
-        <v>1.014133003356476</v>
+        <v>1.014122568742597</v>
       </c>
       <c r="F23">
-        <v>1.020546050274889</v>
+        <v>1.020532138380316</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047946353207951</v>
+        <v>1.047737050093642</v>
       </c>
       <c r="J23">
-        <v>1.028145144140949</v>
+        <v>1.028109732106245</v>
       </c>
       <c r="K23">
-        <v>1.036290669338349</v>
+        <v>1.03577601461875</v>
       </c>
       <c r="L23">
-        <v>1.029123135985861</v>
+        <v>1.029112896016562</v>
       </c>
       <c r="M23">
-        <v>1.035417536281835</v>
+        <v>1.035403879666663</v>
       </c>
       <c r="N23">
-        <v>1.01321332487564</v>
+        <v>1.015217255559273</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036602984027567</v>
+        <v>1.036592175673373</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03678963757023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036440305289985</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022000703469989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003385407383918</v>
+        <v>1.003024559659088</v>
       </c>
       <c r="D24">
-        <v>1.025071450468173</v>
+        <v>1.024175797384747</v>
       </c>
       <c r="E24">
-        <v>1.0183167190478</v>
+        <v>1.01803845881454</v>
       </c>
       <c r="F24">
-        <v>1.024749428452188</v>
+        <v>1.024521406488994</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049452774898543</v>
+        <v>1.049023217161353</v>
       </c>
       <c r="J24">
-        <v>1.030753758755059</v>
+        <v>1.030406676698367</v>
       </c>
       <c r="K24">
-        <v>1.038672138075967</v>
+        <v>1.037791255970054</v>
       </c>
       <c r="L24">
-        <v>1.032029630824414</v>
+        <v>1.031756034820082</v>
       </c>
       <c r="M24">
-        <v>1.038355422974424</v>
+        <v>1.03813116140306</v>
       </c>
       <c r="N24">
-        <v>1.014091171297134</v>
+        <v>1.015327507781145</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03892813323271</v>
+        <v>1.03875064482513</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038465963507028</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037856935697337</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022397648390598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009463546879203</v>
+        <v>1.008876972845487</v>
       </c>
       <c r="D25">
-        <v>1.029173805599385</v>
+        <v>1.027962721738026</v>
       </c>
       <c r="E25">
-        <v>1.023049567415693</v>
+        <v>1.022586637405835</v>
       </c>
       <c r="F25">
-        <v>1.029514075000316</v>
+        <v>1.029137999629107</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.05110457103832</v>
+        <v>1.050498942372093</v>
       </c>
       <c r="J25">
-        <v>1.033676568936751</v>
+        <v>1.033109240539095</v>
       </c>
       <c r="K25">
-        <v>1.041335508079282</v>
+        <v>1.040141924207454</v>
       </c>
       <c r="L25">
-        <v>1.035300303630487</v>
+        <v>1.034844158692593</v>
       </c>
       <c r="M25">
-        <v>1.04167087002248</v>
+        <v>1.041300218751533</v>
       </c>
       <c r="N25">
-        <v>1.015074991740059</v>
+        <v>1.016001239842661</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041552088227309</v>
+        <v>1.041258742965667</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040346238290435</v>
+        <v>1.039515809753145</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022862135379544</v>
       </c>
     </row>
   </sheetData>
